--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H2">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.303830666666668</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N2">
-        <v>24.911492</v>
+        <v>43.518557</v>
       </c>
       <c r="O2">
-        <v>0.138790009019306</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P2">
-        <v>0.138790009019306</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q2">
-        <v>3.433736394578224</v>
+        <v>10.35346121270822</v>
       </c>
       <c r="R2">
-        <v>30.90362755120401</v>
+        <v>93.18115091437402</v>
       </c>
       <c r="S2">
-        <v>0.02943883435805374</v>
+        <v>0.08523904320200842</v>
       </c>
       <c r="T2">
-        <v>0.02943883435805373</v>
+        <v>0.08523904320200841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H3">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>93.63996499999999</v>
       </c>
       <c r="O3">
-        <v>0.521698643618676</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P3">
-        <v>0.521698643618676</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q3">
-        <v>12.90709347346722</v>
+        <v>22.27780083762555</v>
       </c>
       <c r="R3">
-        <v>116.163841261205</v>
+        <v>200.50020753863</v>
       </c>
       <c r="S3">
-        <v>0.1106578208534819</v>
+        <v>0.1834109761973393</v>
       </c>
       <c r="T3">
-        <v>0.1106578208534819</v>
+        <v>0.1834109761973393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H4">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,43 +685,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.18825766666667</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N4">
-        <v>60.564773</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O4">
-        <v>0.3374260116946116</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P4">
-        <v>0.3374260116946115</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q4">
-        <v>8.34809353367789</v>
+        <v>9.557132549724447</v>
       </c>
       <c r="R4">
-        <v>75.132841803101</v>
+        <v>86.01419294752002</v>
       </c>
       <c r="S4">
-        <v>0.07157163931731286</v>
+        <v>0.07868294646174581</v>
       </c>
       <c r="T4">
-        <v>0.07157163931731286</v>
+        <v>0.0786829464617458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4135123333333334</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H5">
-        <v>1.240537</v>
+        <v>1.811317</v>
       </c>
       <c r="I5">
-        <v>0.212110616362585</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J5">
-        <v>0.212110616362585</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.124766</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N5">
-        <v>0.374298</v>
+        <v>43.518557</v>
       </c>
       <c r="O5">
-        <v>0.00208533566740636</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P5">
-        <v>0.00208533566740636</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q5">
-        <v>0.05159227978066668</v>
+        <v>8.75843356772989</v>
       </c>
       <c r="R5">
-        <v>0.4643305180260001</v>
+        <v>78.825902109569</v>
       </c>
       <c r="S5">
-        <v>0.0004423218337364456</v>
+        <v>0.07210733511468538</v>
       </c>
       <c r="T5">
-        <v>0.0004423218337364456</v>
+        <v>0.07210733511468538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>1.811317</v>
       </c>
       <c r="I6">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J6">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.303830666666668</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N6">
-        <v>24.911492</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O6">
-        <v>0.138790009019306</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P6">
-        <v>0.138790009019306</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q6">
-        <v>5.013623217218223</v>
+        <v>18.84574005376722</v>
       </c>
       <c r="R6">
-        <v>45.12260895496401</v>
+        <v>169.611660483905</v>
       </c>
       <c r="S6">
-        <v>0.04298385387370696</v>
+        <v>0.1551551522349973</v>
       </c>
       <c r="T6">
-        <v>0.04298385387370696</v>
+        <v>0.1551551522349973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1.811317</v>
       </c>
       <c r="I7">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J7">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.21332166666666</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N7">
-        <v>93.63996499999999</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O7">
-        <v>0.521698643618676</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P7">
-        <v>0.521698643618676</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q7">
-        <v>18.84574005376722</v>
+        <v>8.084785253457779</v>
       </c>
       <c r="R7">
-        <v>169.611660483905</v>
+        <v>72.76306728112002</v>
       </c>
       <c r="S7">
-        <v>0.1615722804679476</v>
+        <v>0.06656125380105476</v>
       </c>
       <c r="T7">
-        <v>0.1615722804679476</v>
+        <v>0.06656125380105475</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.6037723333333334</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H8">
-        <v>1.811317</v>
+        <v>0.279021</v>
       </c>
       <c r="I8">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J8">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,90 +933,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.18825766666667</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N8">
-        <v>60.564773</v>
+        <v>43.518557</v>
       </c>
       <c r="O8">
-        <v>0.3374260116946116</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P8">
-        <v>0.3374260116946115</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q8">
-        <v>12.18911143733789</v>
+        <v>1.349176810299667</v>
       </c>
       <c r="R8">
-        <v>109.702002936041</v>
+        <v>12.142591292697</v>
       </c>
       <c r="S8">
-        <v>0.1045022655618633</v>
+        <v>0.01110764198151656</v>
       </c>
       <c r="T8">
-        <v>0.1045022655618633</v>
+        <v>0.01110764198151656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.6037723333333334</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H9">
-        <v>1.811317</v>
+        <v>0.279021</v>
       </c>
       <c r="I9">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J9">
-        <v>0.3097042371956889</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.124766</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N9">
-        <v>0.374298</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O9">
-        <v>0.00208533566740636</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P9">
-        <v>0.00208533566740636</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q9">
-        <v>0.07533025894066667</v>
+        <v>2.903057408251666</v>
       </c>
       <c r="R9">
-        <v>0.677972330466</v>
+        <v>26.127516674265</v>
       </c>
       <c r="S9">
-        <v>0.0006458372921710496</v>
+        <v>0.02390059041667538</v>
       </c>
       <c r="T9">
-        <v>0.0006458372921710496</v>
+        <v>0.02390059041667538</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H10">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I10">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J10">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.303830666666668</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N10">
-        <v>24.911492</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O10">
-        <v>0.138790009019306</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P10">
-        <v>0.138790009019306</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q10">
-        <v>2.501036294380445</v>
+        <v>1.245405893173334</v>
       </c>
       <c r="R10">
-        <v>22.509326649424</v>
+        <v>11.20865303856</v>
       </c>
       <c r="S10">
-        <v>0.02144241279266586</v>
+        <v>0.01025330607332902</v>
       </c>
       <c r="T10">
-        <v>0.02144241279266585</v>
+        <v>0.01025330607332902</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3011906666666667</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H11">
-        <v>0.903572</v>
+        <v>0.792275</v>
       </c>
       <c r="I11">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J11">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.21332166666666</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N11">
-        <v>93.63996499999999</v>
+        <v>43.518557</v>
       </c>
       <c r="O11">
-        <v>0.521698643618676</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P11">
-        <v>0.521698643618676</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q11">
-        <v>9.401161161664444</v>
+        <v>3.830962749686111</v>
       </c>
       <c r="R11">
-        <v>84.61045045498</v>
+        <v>34.478664747175</v>
       </c>
       <c r="S11">
-        <v>0.0806000212038999</v>
+        <v>0.03153994520450443</v>
       </c>
       <c r="T11">
-        <v>0.0806000212038999</v>
+        <v>0.03153994520450443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3011906666666667</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H12">
-        <v>0.903572</v>
+        <v>0.792275</v>
       </c>
       <c r="I12">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J12">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.18825766666667</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N12">
-        <v>60.564773</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O12">
-        <v>0.3374260116946116</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P12">
-        <v>0.3374260116946115</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q12">
-        <v>6.080514785461777</v>
+        <v>8.243178141152777</v>
       </c>
       <c r="R12">
-        <v>54.724633069156</v>
+        <v>74.18860327037498</v>
       </c>
       <c r="S12">
-        <v>0.05213075408570886</v>
+        <v>0.06786528710158549</v>
       </c>
       <c r="T12">
-        <v>0.05213075408570885</v>
+        <v>0.06786528710158549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3011906666666667</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H13">
-        <v>0.903572</v>
+        <v>0.792275</v>
       </c>
       <c r="I13">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J13">
-        <v>0.1544953627727134</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.124766</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N13">
-        <v>0.374298</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O13">
-        <v>0.00208533566740636</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P13">
-        <v>0.00208533566740636</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q13">
-        <v>0.03757835471733333</v>
+        <v>3.536307138222223</v>
       </c>
       <c r="R13">
-        <v>0.3382051924560001</v>
+        <v>31.826764244</v>
       </c>
       <c r="S13">
-        <v>0.0003221746904388242</v>
+        <v>0.02911407409924969</v>
       </c>
       <c r="T13">
-        <v>0.0003221746904388242</v>
+        <v>0.02911407409924969</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H14">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I14">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J14">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.303830666666668</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N14">
-        <v>24.911492</v>
+        <v>43.518557</v>
       </c>
       <c r="O14">
-        <v>0.138790009019306</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P14">
-        <v>0.138790009019306</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q14">
-        <v>3.525859091994223</v>
+        <v>3.061757748525445</v>
       </c>
       <c r="R14">
-        <v>31.732731827948</v>
+        <v>27.555819736729</v>
       </c>
       <c r="S14">
-        <v>0.03022864013176685</v>
+        <v>0.02520715494450361</v>
       </c>
       <c r="T14">
-        <v>0.03022864013176684</v>
+        <v>0.0252071549445036</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H15">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I15">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J15">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>93.63996499999999</v>
       </c>
       <c r="O15">
-        <v>0.521698643618676</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P15">
-        <v>0.521698643618676</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q15">
-        <v>13.25337406403722</v>
+        <v>6.58806054645611</v>
       </c>
       <c r="R15">
-        <v>119.280366576335</v>
+        <v>59.29254491810499</v>
       </c>
       <c r="S15">
-        <v>0.11362662677676</v>
+        <v>0.05423886427927503</v>
       </c>
       <c r="T15">
-        <v>0.11362662677676</v>
+        <v>0.05423886427927502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4246063333333334</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H16">
-        <v>1.273819</v>
+        <v>0.633197</v>
       </c>
       <c r="I16">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J16">
-        <v>0.2178012693086717</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.18825766666667</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N16">
-        <v>60.564773</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O16">
-        <v>0.3374260116946116</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P16">
-        <v>0.3374260116946115</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q16">
-        <v>8.572062064231888</v>
+        <v>2.826264959768889</v>
       </c>
       <c r="R16">
-        <v>77.14855857808699</v>
+        <v>25.43638463792</v>
       </c>
       <c r="S16">
-        <v>0.07349181364484908</v>
+        <v>0.02326836562736753</v>
       </c>
       <c r="T16">
-        <v>0.07349181364484908</v>
+        <v>0.02326836562736752</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4246063333333334</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H17">
-        <v>1.273819</v>
+        <v>0.507646</v>
       </c>
       <c r="I17">
-        <v>0.2178012693086717</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J17">
-        <v>0.2178012693086717</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.124766</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N17">
-        <v>0.374298</v>
+        <v>43.518557</v>
       </c>
       <c r="O17">
-        <v>0.00208533566740636</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P17">
-        <v>0.00208533566740636</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q17">
-        <v>0.05297643378466667</v>
+        <v>2.454669042980222</v>
       </c>
       <c r="R17">
-        <v>0.4767879040620001</v>
+        <v>22.092021386822</v>
       </c>
       <c r="S17">
-        <v>0.0004541887552957512</v>
+        <v>0.02020905244174796</v>
       </c>
       <c r="T17">
-        <v>0.0004541887552957512</v>
+        <v>0.02020905244174795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H18">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I18">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J18">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.303830666666668</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N18">
-        <v>24.911492</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O18">
-        <v>0.138790009019306</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P18">
-        <v>0.138790009019306</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q18">
-        <v>0.6174783842604445</v>
+        <v>5.281772630265555</v>
       </c>
       <c r="R18">
-        <v>5.557305458344</v>
+        <v>47.53595367239</v>
       </c>
       <c r="S18">
-        <v>0.005293896148412617</v>
+        <v>0.0434843224082187</v>
       </c>
       <c r="T18">
-        <v>0.005293896148412616</v>
+        <v>0.04348432240821869</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07436066666666667</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H19">
-        <v>0.223082</v>
+        <v>0.507646</v>
       </c>
       <c r="I19">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J19">
-        <v>0.03814320775551086</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.21332166666666</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N19">
-        <v>93.63996499999999</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O19">
-        <v>0.521698643618676</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P19">
-        <v>0.521698643618676</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q19">
-        <v>2.321043408014444</v>
+        <v>2.265870024284445</v>
       </c>
       <c r="R19">
-        <v>20.88939067213</v>
+        <v>20.39283021856</v>
       </c>
       <c r="S19">
-        <v>0.01989925974931538</v>
+        <v>0.01865468841019559</v>
       </c>
       <c r="T19">
-        <v>0.01989925974931538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.07436066666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.223082</v>
-      </c>
-      <c r="I20">
-        <v>0.03814320775551086</v>
-      </c>
-      <c r="J20">
-        <v>0.03814320775551086</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>20.18825766666667</v>
-      </c>
-      <c r="N20">
-        <v>60.564773</v>
-      </c>
-      <c r="O20">
-        <v>0.3374260116946116</v>
-      </c>
-      <c r="P20">
-        <v>0.3374260116946115</v>
-      </c>
-      <c r="Q20">
-        <v>1.501212298931778</v>
-      </c>
-      <c r="R20">
-        <v>13.510910690386</v>
-      </c>
-      <c r="S20">
-        <v>0.01287051046618101</v>
-      </c>
-      <c r="T20">
-        <v>0.012870510466181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.07436066666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.223082</v>
-      </c>
-      <c r="I21">
-        <v>0.03814320775551086</v>
-      </c>
-      <c r="J21">
-        <v>0.03814320775551086</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.124766</v>
-      </c>
-      <c r="N21">
-        <v>0.374298</v>
-      </c>
-      <c r="O21">
-        <v>0.00208533566740636</v>
-      </c>
-      <c r="P21">
-        <v>0.00208533566740636</v>
-      </c>
-      <c r="Q21">
-        <v>0.009277682937333335</v>
-      </c>
-      <c r="R21">
-        <v>0.08349914643600001</v>
-      </c>
-      <c r="S21">
-        <v>7.95413916018577E-05</v>
-      </c>
-      <c r="T21">
-        <v>7.95413916018577E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.396211</v>
-      </c>
-      <c r="I22">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J22">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.303830666666668</v>
-      </c>
-      <c r="N22">
-        <v>24.911492</v>
-      </c>
-      <c r="O22">
-        <v>0.138790009019306</v>
-      </c>
-      <c r="P22">
-        <v>0.138790009019306</v>
-      </c>
-      <c r="Q22">
-        <v>1.096689684090222</v>
-      </c>
-      <c r="R22">
-        <v>9.870207156812</v>
-      </c>
-      <c r="S22">
-        <v>0.009402371714700025</v>
-      </c>
-      <c r="T22">
-        <v>0.009402371714700025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.396211</v>
-      </c>
-      <c r="I23">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J23">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>31.21332166666666</v>
-      </c>
-      <c r="N23">
-        <v>93.63996499999999</v>
-      </c>
-      <c r="O23">
-        <v>0.521698643618676</v>
-      </c>
-      <c r="P23">
-        <v>0.521698643618676</v>
-      </c>
-      <c r="Q23">
-        <v>4.122353796957221</v>
-      </c>
-      <c r="R23">
-        <v>37.10118417261499</v>
-      </c>
-      <c r="S23">
-        <v>0.0353426345672712</v>
-      </c>
-      <c r="T23">
-        <v>0.03534263456727121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.396211</v>
-      </c>
-      <c r="I24">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J24">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>20.18825766666667</v>
-      </c>
-      <c r="N24">
-        <v>60.564773</v>
-      </c>
-      <c r="O24">
-        <v>0.3374260116946116</v>
-      </c>
-      <c r="P24">
-        <v>0.3374260116946115</v>
-      </c>
-      <c r="Q24">
-        <v>2.666269919455889</v>
-      </c>
-      <c r="R24">
-        <v>23.996429275103</v>
-      </c>
-      <c r="S24">
-        <v>0.02285902861869645</v>
-      </c>
-      <c r="T24">
-        <v>0.02285902861869645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.1320703333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.396211</v>
-      </c>
-      <c r="I25">
-        <v>0.06774530660483011</v>
-      </c>
-      <c r="J25">
-        <v>0.06774530660483012</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.124766</v>
-      </c>
-      <c r="N25">
-        <v>0.374298</v>
-      </c>
-      <c r="O25">
-        <v>0.00208533566740636</v>
-      </c>
-      <c r="P25">
-        <v>0.00208533566740636</v>
-      </c>
-      <c r="Q25">
-        <v>0.01647788720866666</v>
-      </c>
-      <c r="R25">
-        <v>0.148300984878</v>
-      </c>
-      <c r="S25">
-        <v>0.0001412717041624319</v>
-      </c>
-      <c r="T25">
-        <v>0.0001412717041624319</v>
+        <v>0.01865468841019558</v>
       </c>
     </row>
   </sheetData>
